--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E4EEF-8765-48C1-929C-2C19B97B2E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2219683-A30E-43C6-9FCF-630F7105BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,20 +556,20 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,10 +854,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,26 +877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -977,7 +977,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="34"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1020,10 +1020,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
@@ -1032,48 +1032,48 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="15" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1154,7 +1154,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1197,10 +1197,10 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="23" t="s">
         <v>22</v>
       </c>
@@ -1209,26 +1209,26 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:R3" xr:uid="{0B458E1C-8D8C-4857-B8D5-EE9A647E9B85}"/>
@@ -1251,6 +1251,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100561141899A076942B9E2AB7BF2567D91" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="9069116ac0a4f0202bad2712f3d899fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da7324cf-fea2-4dbe-b3a6-ab88204922d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0623f94acd0b48e19a45a3530a199e4" ns2:_="">
     <xsd:import namespace="da7324cf-fea2-4dbe-b3a6-ab88204922d8"/>
@@ -1398,12 +1404,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1414,6 +1414,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46EB90D-3DA5-4B70-90F4-E91292DC2562}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="da7324cf-fea2-4dbe-b3a6-ab88204922d8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA498F9D-1244-42EB-B866-799C67962F4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1431,22 +1447,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46EB90D-3DA5-4B70-90F4-E91292DC2562}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="da7324cf-fea2-4dbe-b3a6-ab88204922d8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10885C19-4E45-464A-B232-A110A21D21D6}">
   <ds:schemaRefs>
